--- a/src/study/tEAS_study_codes.xlsx
+++ b/src/study/tEAS_study_codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanti/Documents/GitHub/teas/src/study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FBB390-077F-4E42-A46E-7A620EC8E894}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333BE60B-1BAE-CA45-BD92-4B16F58F642D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="5" xr2:uid="{43BBEB3A-4136-0F47-BD2A-6243F2612821}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{43BBEB3A-4136-0F47-BD2A-6243F2612821}"/>
   </bookViews>
   <sheets>
     <sheet name="572" sheetId="1" r:id="rId1"/>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42F2268-FDE3-304F-B5D2-F0F41F21D1A6}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -938,7 +938,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD27"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1438,7 +1438,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD27"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1687,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2DB990-3907-A543-A755-1C8E933964B9}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
